--- a/pred_ohlcv/54_21/2020-01-13 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 IPX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>16711.035684909</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>16557.726884909</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>16623.726884909</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>16733.726884909</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>16777.726884909</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>16777.726884909</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>16777.726884909</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>16511.726884909</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>16533.726884909</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>16511.726884909</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>16599.726884909</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -912,7 +912,7 @@
         <v>38047.30469999999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>38047.30469999999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>25310.04279999999</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>24410.45429999999</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>26838.26389999999</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>26838.26389999999</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>24780.82729999999</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>24780.82729999999</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>24780.82729999999</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>25652.05879999999</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>25652.05879999999</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>25652.05879999999</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>24466.71189999999</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>25465.14899999999</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>24119.23279999999</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>24119.23279999999</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>24119.23279999999</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>24466.71179999999</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>24814.19079999999</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>24814.19079999999</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>24814.19079999999</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>23282.89049999999</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>23282.89049999999</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>23282.89049999999</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>21741.35859999999</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>21741.35859999999</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>23669.30159999999</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>21930.69059999999</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>21605.21159999999</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>21605.21159999999</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>21605.21159999999</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>24867.56799999999</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>24867.56799999999</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>23046.11399999999</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>23046.11399999999</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>23719.07209999999</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>22395.15589999999</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>23068.11399999999</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>20856.57409999999</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>20856.57409999999</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>19135.81129999999</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>19135.81129999999</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>19135.81129999999</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>19135.81129999999</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>20874.49929999999</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>19111.60439999999</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>16621.87839999999</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>18212.09459999999</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>20354.57579999999</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>20007.09679999999</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>20007.09679999999</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>20007.09679999999</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>20864.16099999999</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>17354.61209999999</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>16454.23579999999</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>18085.54579999999</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>19519.46189999999</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>19519.46189999999</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>19519.46189999999</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>18543.02479999999</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>18868.50379999999</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>18868.50379999999</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>17892.06669999999</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>19024.26779999999</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>19024.26779999999</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>19024.26779999999</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>19024.26779999999</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>19024.26779999999</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>21111.50499999999</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>20786.02599999999</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>20786.02599999999</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>19580.244</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>19580.244</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>19580.244</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>19580.244</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>20767.0033</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>20767.0033</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>19254.0684</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>20459.1786</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>20459.1786</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>20459.1786</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>20459.1786</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>20459.1786</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>18592.97529999999</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>18592.97529999999</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>18592.97529999999</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>18592.97529999999</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>19486.04129999999</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>19486.04129999999</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>18264.71999999999</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>18264.71999999999</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>18264.71999999999</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>20043.51749999999</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>18191.872</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>18191.872</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>18191.872</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>19076.74259999999</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>17228.8124</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>17228.8124</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>17228.8124</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>18177.3878</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>10727.7491</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>9811.926099999997</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>11869.0575</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>11869.0575</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>13758.4737</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-119656.3622621631</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-118470.4712621631</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-115254.1476621631</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-115254.1476621631</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-115254.1476621631</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-210856.3575621632</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-210911.8158621632</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-203285.3833621631</v>
       </c>
       <c r="H876">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-203610.8623621631</v>
       </c>
       <c r="H877">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-203610.8623621631</v>
       </c>
       <c r="H878">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-203610.8623621631</v>
       </c>
       <c r="H879">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H880">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H881">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H882">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H883">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H884">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H885">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H886">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H887">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H888">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H889">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H890">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H891">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H892">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H893">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H895">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H896">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H897">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H900">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H901">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H902">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H904">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H905">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H906">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H907">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H915">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H916">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H917">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H918">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 IPX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>16711.035684909</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>16557.726884909</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>16623.726884909</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>16733.726884909</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>16777.726884909</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>16777.726884909</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>16777.726884909</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>16511.726884909</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>16533.726884909</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>16511.726884909</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>16599.726884909</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -912,7 +912,7 @@
         <v>38047.30469999999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>38047.30469999999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>25395.64839999999</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>24419.21129999999</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>25310.04279999999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>24410.45429999999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>24780.82729999999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>24780.82729999999</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>24780.82729999999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>25652.05879999999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>25652.05879999999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>25652.05879999999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>24466.71189999999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>25465.14899999999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>24119.23279999999</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>24119.23279999999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>24119.23279999999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>24466.71179999999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>24814.19079999999</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>24814.19079999999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>24814.19079999999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>23282.89049999999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>23282.89049999999</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>23282.89049999999</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>21741.35859999999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>21741.35859999999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>21741.35859999999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>23669.30159999999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>21930.69059999999</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>21605.21159999999</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>21605.21159999999</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>21605.21159999999</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>24867.56799999999</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>24867.56799999999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>23046.11399999999</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>23046.11399999999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>23719.07209999999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>22395.15589999999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>23068.11399999999</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>20856.57409999999</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>20856.57409999999</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>19135.81129999999</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>19135.81129999999</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>19135.81129999999</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>19135.81129999999</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>20874.49929999999</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>19111.60439999999</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>16621.87839999999</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>18212.09459999999</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>20354.57579999999</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>20007.09679999999</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>20007.09679999999</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>20007.09679999999</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>20864.16099999999</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>17354.61209999999</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>16454.23579999999</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>18085.54579999999</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>19519.46189999999</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>19519.46189999999</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>19519.46189999999</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>18543.02479999999</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>18868.50379999999</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>18868.50379999999</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>17892.06669999999</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>20000.70489999999</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>19024.26779999999</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>19024.26779999999</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>19024.26779999999</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>19024.26779999999</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>19024.26779999999</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>19024.26779999999</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>21111.50499999999</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>21111.50499999999</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>20786.02599999999</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>20786.02599999999</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>19580.244</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>19580.244</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>19580.244</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>19580.244</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>20767.0033</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>20767.0033</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>19254.0684</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>20459.1786</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>20459.1786</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>20459.1786</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>20459.1786</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>20459.1786</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>18592.97529999999</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>18592.97529999999</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>18592.97529999999</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>18592.97529999999</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>19486.04129999999</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>19486.04129999999</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>18264.71999999999</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>18264.71999999999</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>18264.71999999999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>20043.51749999999</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>18191.872</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>18191.872</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>18191.872</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>19076.74259999999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>17228.8124</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>17228.8124</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>17228.8124</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>18177.3878</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>10727.7491</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>9811.926099999997</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>9811.926099999997</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>11722.9616</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>12614.9211</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>11869.0575</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>11869.0575</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>13129.3338</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>12447.6337</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>13925.5306</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>12134.5906</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-119656.3622621631</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-118470.4712621631</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-115254.1476621631</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-115254.1476621631</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-115254.1476621631</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-210856.3575621632</v>
       </c>
       <c r="H835">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-210911.8158621632</v>
       </c>
       <c r="H836">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-203285.3833621631</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-203610.8623621631</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-203610.8623621631</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-203610.8623621631</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-202389.7091621631</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
